--- a/attempt2/large_invigilators.xlsx
+++ b/attempt2/large_invigilators.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nik/July_Git_Repo/final-year-project-NikKontos.2/attempt2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{FDCE40FF-514B-6248-B08E-262EDE68EDC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A65F4D-0349-134F-BF10-078D4091CBCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="1440" windowWidth="25040" windowHeight="13620" xr2:uid="{59A6529F-BFDE-4247-92E9-D85FA7B5BB99}"/>
+    <workbookView xWindow="-1260" yWindow="1040" windowWidth="25040" windowHeight="13620" xr2:uid="{59A6529F-BFDE-4247-92E9-D85FA7B5BB99}"/>
   </bookViews>
   <sheets>
     <sheet name="75_invigilators" sheetId="1" r:id="rId1"/>
@@ -59,9 +59,6 @@
     <t>Alice Johnson</t>
   </si>
   <si>
-    <t>2,4,5,7,8,10,11,13,14</t>
-  </si>
-  <si>
     <t>Amelia Brown</t>
   </si>
   <si>
@@ -71,15 +68,9 @@
     <t>Andrew White</t>
   </si>
   <si>
-    <t>1,3,6,7,9,10,12,15</t>
-  </si>
-  <si>
     <t>Annabelle Harris</t>
   </si>
   <si>
-    <t>2,4,7,8,10,11,13,15</t>
-  </si>
-  <si>
     <t>Arthur Clark</t>
   </si>
   <si>
@@ -407,9 +398,6 @@
     <t>3,6,8,10,12,14,15</t>
   </si>
   <si>
-    <t>1,3,4,6,7,9,10,12,13,15,16,18</t>
-  </si>
-  <si>
     <t>3,5,8,10,12,14,15,16</t>
   </si>
   <si>
@@ -423,6 +411,18 @@
   </si>
   <si>
     <t>3,6,8,11,13,15,16,18</t>
+  </si>
+  <si>
+    <t>1,2,3,4,6,7,9,10,12,13,15,16,18</t>
+  </si>
+  <si>
+    <t>1,2,4,5,7,8,10,11,13,14</t>
+  </si>
+  <si>
+    <t>2,4,7,8,10,11,13,15,16,17,18</t>
+  </si>
+  <si>
+    <t>1,2,3,6,7,8,9,10,12,15,16,17,18</t>
   </si>
 </sst>
 </file>
@@ -1286,7 +1286,7 @@
   <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E76"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1317,10 +1317,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -1335,7 +1335,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>127</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1350,10 +1350,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1368,10 +1368,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1386,10 +1386,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1404,10 +1404,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1422,10 +1422,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1440,10 +1440,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1458,10 +1458,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1476,10 +1476,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1494,10 +1494,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1512,10 +1512,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1548,10 +1548,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1566,10 +1566,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1584,10 +1584,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1602,10 +1602,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1620,10 +1620,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1638,10 +1638,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1656,10 +1656,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -1674,10 +1674,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -1692,10 +1692,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1710,10 +1710,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1728,10 +1728,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -1746,10 +1746,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C26" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -1764,10 +1764,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1800,10 +1800,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1818,10 +1818,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1836,10 +1836,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1854,10 +1854,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -1872,10 +1872,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C33" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1890,10 +1890,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C34" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -1908,10 +1908,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C35" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -1926,10 +1926,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C36" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1944,10 +1944,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C37" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1962,10 +1962,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C38" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1980,10 +1980,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C39" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -1998,10 +1998,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C40" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -2016,10 +2016,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C41" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -2034,10 +2034,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C42" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C43" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -2070,10 +2070,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C44" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -2088,10 +2088,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C45" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -2106,10 +2106,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C46" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -2124,10 +2124,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C47" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -2142,10 +2142,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C48" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -2160,10 +2160,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C49" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -2178,10 +2178,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C50" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -2196,10 +2196,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C51" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -2214,10 +2214,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C52" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -2232,10 +2232,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C53" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -2250,10 +2250,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C54" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -2268,10 +2268,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C55" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C56" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C57" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -2322,10 +2322,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C58" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -2340,10 +2340,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C59" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -2358,10 +2358,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C60" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -2376,10 +2376,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C61" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -2394,10 +2394,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C62" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -2412,10 +2412,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C63" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -2430,10 +2430,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C64" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -2448,10 +2448,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C65" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -2466,10 +2466,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C66" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -2484,10 +2484,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C67" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -2502,10 +2502,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C68" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -2520,10 +2520,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C69" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -2538,10 +2538,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C70" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -2556,10 +2556,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C71" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -2574,10 +2574,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C72" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -2592,10 +2592,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C73" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -2610,10 +2610,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C74" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -2628,10 +2628,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C75" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -2646,10 +2646,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C76" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D76">
         <v>1</v>

--- a/attempt2/large_invigilators.xlsx
+++ b/attempt2/large_invigilators.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nik/July_Git_Repo/final-year-project-NikKontos.2/attempt2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A65F4D-0349-134F-BF10-078D4091CBCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB366BFF-7A78-034B-BDFF-AA4A9AF4950E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1260" yWindow="1040" windowWidth="25040" windowHeight="13620" xr2:uid="{59A6529F-BFDE-4247-92E9-D85FA7B5BB99}"/>
+    <workbookView xWindow="0" yWindow="1040" windowWidth="25040" windowHeight="13620" xr2:uid="{59A6529F-BFDE-4247-92E9-D85FA7B5BB99}"/>
   </bookViews>
   <sheets>
     <sheet name="75_invigilators" sheetId="1" r:id="rId1"/>
@@ -1285,8 +1285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9259C063-0089-3041-BBBC-62FD6FFF3990}">
   <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1320,7 +1320,7 @@
         <v>126</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -1338,7 +1338,7 @@
         <v>127</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -1356,7 +1356,7 @@
         <v>9</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -1392,7 +1392,7 @@
         <v>128</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -1482,7 +1482,7 @@
         <v>21</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -1572,7 +1572,7 @@
         <v>31</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="s">
         <v>6</v>
@@ -1644,7 +1644,7 @@
         <v>39</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="s">
         <v>6</v>
@@ -1662,7 +1662,7 @@
         <v>41</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="s">
         <v>6</v>
@@ -1680,7 +1680,7 @@
         <v>43</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="s">
         <v>6</v>
@@ -1698,7 +1698,7 @@
         <v>45</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="s">
         <v>6</v>
@@ -1734,7 +1734,7 @@
         <v>49</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="s">
         <v>6</v>
@@ -1752,7 +1752,7 @@
         <v>123</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="s">
         <v>6</v>
@@ -1860,7 +1860,7 @@
         <v>39</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="s">
         <v>6</v>
@@ -1896,7 +1896,7 @@
         <v>43</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" t="s">
         <v>6</v>
@@ -1914,7 +1914,7 @@
         <v>63</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" t="s">
         <v>6</v>
@@ -2004,7 +2004,7 @@
         <v>73</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" t="s">
         <v>6</v>
@@ -2094,7 +2094,7 @@
         <v>80</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" t="s">
         <v>6</v>
@@ -2130,7 +2130,7 @@
         <v>33</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47" t="s">
         <v>6</v>
@@ -2184,7 +2184,7 @@
         <v>39</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50" t="s">
         <v>6</v>
@@ -2238,7 +2238,7 @@
         <v>90</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53" t="s">
         <v>6</v>
@@ -2310,7 +2310,7 @@
         <v>97</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57" t="s">
         <v>6</v>
@@ -2346,7 +2346,7 @@
         <v>33</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59" t="s">
         <v>6</v>
@@ -2364,7 +2364,7 @@
         <v>35</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60" t="s">
         <v>6</v>
@@ -2490,7 +2490,7 @@
         <v>109</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E67" t="s">
         <v>6</v>
@@ -2598,7 +2598,7 @@
         <v>25</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E73" t="s">
         <v>6</v>
@@ -2652,7 +2652,7 @@
         <v>120</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E76" t="s">
         <v>6</v>
